--- a/similarities/split_global/harmonic_similarity_timestamps_362.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_362.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:08.200000', '0:00:12.660000')]</t>
+          <t>('0:00:00.320000', '0:00:10.960000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:07.160000', '0:00:20.240000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_116</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Eb:7', 'Bb:7']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'C:7', 'G:7']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:20.120000', '0:00:27.320000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:22.645827', '0:00:28.090907')]</t>
+          <t>('0:01:56.660000', '0:02:01.420000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=20.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-116#t=22.645827']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:21.800000', '0:00:30.380000')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=21.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'C#:7']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'G:7']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:09.420000', '0:02:15.880000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.220000', '0:00:21.630000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=129.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=18.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Bb:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A#/F', 'F:7', 'A#', 'C:7/A#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:01:23.460000', '0:01:31.460000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:38.180000', '0:00:51.980000')]</t>
+          <t>('0:04:31.220000', '0:04:41.440000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=62.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:40.020000', '0:00:45.900000')]</t>
+          <t>('0:00:19.840000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:37.640000', '0:01:51')]</t>
+          <t>('0:00:41.180000', '0:00:52.640000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=40.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=19.84</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=97.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=41.18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:37.760000', '0:01:49.380000')]</t>
+          <t>('0:00:08.180000', '0:00:13.260000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=97.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:29.740000', '0:00:43.970000')]</t>
+          <t>('0:00:02.560000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=29.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:44.300000', '0:01:07.100000')]</t>
+          <t>('0:01:00.720000', '0:01:12.720000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
+          <t>('0:00:05.650000', '0:00:08.920000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=44.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=60.72</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=5.65</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'C:maj', 'D:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'A']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:20.457000', '0:00:28.213000')]</t>
+          <t>('0:00:22.060000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:25.606371', '0:00:38.772086')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=20.457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=25.606371']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['F#:7', 'B:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:17.780000', '0:00:25.400000')]</t>
+          <t>('0:00:30.520000', '0:00:40.640000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:01:00.680000', '0:01:03.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=30.52</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.68</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
+          <t>('0:00:57.777619', '0:01:01.864331')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:13.780000', '0:02:15.340000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=57.777619</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=133.78']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.390000', '0:00:17.230000')]</t>
+          <t>('0:00:34.860000', '0:00:39.700000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:37.840000', '0:00:42.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=34.86</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['Db', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:01:04.520000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:01:49.860000', '0:01:58.640000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=109.86</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
